--- a/biology/Biologie cellulaire et moléculaire/Cytokératine/Cytokératine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cytokératine/Cytokératine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cytok%C3%A9ratine</t>
+          <t>Cytokératine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cytokératines sont les constituants des filaments intermédiaires de kératine, ce sont des polymères de kératine (d'un diamètre d'environ 10 nm), que l'on retrouve spécifiquement dans les tissus épithéliaux. Ce sont des alpha-kératines, que l'on peut classer en deux groupes : les cytokératines de type I, qui sont acides, et les cytokératines de type II, qui sont basiques ou neutres.
 Généralement, les cytokératines s'assemblent en fonction de leur type et on trouve des couples type I - type II. Par exemple, on trouve le couple K5/K14 dans la couche basale de l'épiderme. Les cytokératines de type II sont plus longues que celles de type I.
